--- a/Data/Input_Updated.xlsx
+++ b/Data/Input_Updated.xlsx
@@ -365,92 +365,92 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Population</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>Import_Brazil</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Import_Japan</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Import_EU</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LatAm</t>
+          <t>Import_SSA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ROW</t>
+          <t>Import_Canada</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SEAsia</t>
+          <t>Import_US</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Mideast</t>
+          <t>Import_LatAm</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Import_ROW</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Import_SEAsia</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Safrica</t>
+          <t>Import_Mideast</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Import_Russia</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Eurasia</t>
+          <t>Import_India</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Import_Safrica</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>Import_China</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Import_Eurasia</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -466,58 +466,58 @@
         </is>
       </c>
       <c r="B2">
+        <v>2191.13176568463</v>
+      </c>
+      <c r="C2">
+        <v>0.211140729</v>
+      </c>
+      <c r="D2">
+        <v>1300.168867</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>6620.217025</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>46316.386964</v>
       </c>
-      <c r="E2">
-        <v>4754.2292</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
+        <v>4738.137985</v>
+      </c>
+      <c r="I2">
         <v>5772.279323</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>37451.904934</v>
       </c>
-      <c r="H2">
-        <v>56494.768057</v>
-      </c>
-      <c r="I2">
-        <v>30044.150319</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>56418.002559</v>
+      </c>
+      <c r="L2">
+        <v>28084.997472</v>
+      </c>
+      <c r="M2">
         <v>24411.087375</v>
       </c>
-      <c r="K2">
-        <v>15002.241402</v>
-      </c>
-      <c r="L2">
+      <c r="N2">
+        <v>14970.026447</v>
+      </c>
+      <c r="O2">
         <v>1343.313932</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>4686.024342</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>1642.492859</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>104324.811805</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>831.858471</v>
-      </c>
-      <c r="Q2">
-        <v>211.140729</v>
-      </c>
-      <c r="R2">
-        <v>2191.13176568463</v>
-      </c>
-      <c r="S2">
-        <v>1300.168867</v>
       </c>
       <c r="T2">
         <v>0.00716</v>
@@ -530,58 +530,58 @@
         </is>
       </c>
       <c r="B3">
+        <v>4213.167237905825</v>
+      </c>
+      <c r="C3">
+        <v>0.12451665</v>
+      </c>
+      <c r="D3">
+        <v>1041.012825</v>
+      </c>
+      <c r="E3">
         <v>4237.865061227</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>73909.94732572499</v>
       </c>
-      <c r="E3">
-        <v>6229.450582904999</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>6203.281006651</v>
+      </c>
+      <c r="I3">
         <v>10937.236174138</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>145131.05796898</v>
       </c>
-      <c r="H3">
-        <v>25705.478883333</v>
-      </c>
-      <c r="I3">
-        <v>171799.785131891</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
+        <v>25678.522162083</v>
+      </c>
+      <c r="L3">
+        <v>137093.711883171</v>
+      </c>
+      <c r="M3">
         <v>104768.424325293</v>
       </c>
-      <c r="K3">
-        <v>25281.558727626</v>
-      </c>
-      <c r="L3">
+      <c r="N3">
+        <v>25277.836047914</v>
+      </c>
+      <c r="O3">
         <v>2815.493306872</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>15909.855203307</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>2509.334311804</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>126439.83002732</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>2271.075108721</v>
-      </c>
-      <c r="Q3">
-        <v>124.51665</v>
-      </c>
-      <c r="R3">
-        <v>4213.167237905825</v>
-      </c>
-      <c r="S3">
-        <v>1041.012825</v>
       </c>
       <c r="T3">
         <v>0.03014</v>
@@ -594,58 +594,58 @@
         </is>
       </c>
       <c r="B4">
+        <v>18602.67297172163</v>
+      </c>
+      <c r="C4">
+        <v>0.449425965</v>
+      </c>
+      <c r="D4">
+        <v>3221.794614847</v>
+      </c>
+      <c r="E4">
         <v>42464.91956292</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>66878.67541650799</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>57065.979703053</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>56665.5127186</v>
+      </c>
+      <c r="I4">
         <v>49875.917937454</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>528112.8001364539</v>
       </c>
-      <c r="H4">
-        <v>115323.272557443</v>
-      </c>
-      <c r="I4">
-        <v>1211803.520828286</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>115221.150363242</v>
+      </c>
+      <c r="L4">
+        <v>1163352.625030423</v>
+      </c>
+      <c r="M4">
         <v>99058.59153000099</v>
       </c>
-      <c r="K4">
-        <v>141779.426338557</v>
-      </c>
-      <c r="L4">
+      <c r="N4">
+        <v>141363.529251801</v>
+      </c>
+      <c r="O4">
         <v>39810.370504814</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>51158.607726086</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>26864.645989263</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>233390.963804824</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>85374.40785440199</v>
-      </c>
-      <c r="Q4">
-        <v>449.425965</v>
-      </c>
-      <c r="R4">
-        <v>18602.67297172163</v>
-      </c>
-      <c r="S4">
-        <v>3221.794614847</v>
       </c>
       <c r="T4">
         <v>0.02299</v>
@@ -658,58 +658,58 @@
         </is>
       </c>
       <c r="B5">
-        <v>2415.205784895</v>
+        <v>1431.102587046596</v>
       </c>
       <c r="C5">
-        <v>1534.055882787</v>
+        <v>1.194879818</v>
       </c>
       <c r="D5">
-        <v>60916.354529725</v>
+        <v>1820.899575539</v>
       </c>
       <c r="E5">
+        <v>2414.489348232</v>
+      </c>
+      <c r="F5">
+        <v>1529.52841476</v>
+      </c>
+      <c r="G5">
+        <v>59828.198001159</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>7121.643510046</v>
-      </c>
-      <c r="G5">
-        <v>9540.397601174</v>
-      </c>
-      <c r="H5">
-        <v>2078.692854123</v>
-      </c>
       <c r="I5">
-        <v>36858.26175829799</v>
+        <v>6996.776982361</v>
       </c>
       <c r="J5">
-        <v>18636.134402403</v>
+        <v>9482.270100468</v>
       </c>
       <c r="K5">
-        <v>15443.29691862</v>
+        <v>2074.006927015</v>
       </c>
       <c r="L5">
-        <v>158.433912731</v>
+        <v>32046.256023954</v>
       </c>
       <c r="M5">
-        <v>16448.264893623</v>
+        <v>18595.363458853</v>
       </c>
       <c r="N5">
-        <v>16635.754976022</v>
+        <v>15177.639887289</v>
       </c>
       <c r="O5">
-        <v>49980.31253643701</v>
+        <v>154.464506118</v>
       </c>
       <c r="P5">
-        <v>132.851572677</v>
+        <v>16398.264601361</v>
       </c>
       <c r="Q5">
-        <v>1197.842913</v>
+        <v>15539.885047491</v>
       </c>
       <c r="R5">
-        <v>1443.510858494465</v>
+        <v>49301.683427402</v>
       </c>
       <c r="S5">
-        <v>1833.785250589</v>
+        <v>132.846606141</v>
       </c>
       <c r="T5">
         <v>0.00701</v>
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B6">
+        <v>2173.339670064328</v>
+      </c>
+      <c r="C6">
+        <v>0.040083484</v>
+      </c>
+      <c r="D6">
+        <v>747.6780268</v>
+      </c>
+      <c r="E6">
         <v>3037.645253394</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>11761.022686424</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>25587.557585325</v>
       </c>
-      <c r="E6">
-        <v>1896.916693451</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1888.980465171</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>439548.45550628</v>
       </c>
-      <c r="H6">
-        <v>12864.266002959</v>
-      </c>
-      <c r="I6">
-        <v>35249.710714734</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>12844.780842568</v>
+      </c>
+      <c r="L6">
+        <v>31440.057337589</v>
+      </c>
+      <c r="M6">
         <v>6289.760988198</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>4811.577499775</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>36.012415595</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>3809.461477952</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>343.063709943</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>22658.539707501</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>612.331748788</v>
-      </c>
-      <c r="Q6">
-        <v>40.083484</v>
-      </c>
-      <c r="R6">
-        <v>2173.339670064328</v>
-      </c>
-      <c r="S6">
-        <v>747.6780268</v>
       </c>
       <c r="T6">
         <v>0.04195</v>
@@ -786,58 +786,58 @@
         </is>
       </c>
       <c r="B7">
+        <v>27720.709</v>
+      </c>
+      <c r="C7">
+        <v>0.336806231</v>
+      </c>
+      <c r="D7">
+        <v>5960.80438</v>
+      </c>
+      <c r="E7">
         <v>44807.817218</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>76154.045176</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>369440.301736</v>
       </c>
-      <c r="E7">
-        <v>11054.142861</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>10877.638818</v>
+      </c>
+      <c r="I7">
         <v>352760.090331</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>472785.616051</v>
-      </c>
-      <c r="I7">
-        <v>314921.925138</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
+        <v>471949.076176</v>
+      </c>
+      <c r="L7">
+        <v>282230.692964</v>
+      </c>
+      <c r="M7">
         <v>107254.556463</v>
       </c>
-      <c r="K7">
-        <v>68464.342087</v>
-      </c>
-      <c r="L7">
+      <c r="N7">
+        <v>68462.31796099999</v>
+      </c>
+      <c r="O7">
         <v>597.2741580000001</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>40116.453423</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>7155.082196</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>147805.519996</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>5225.416937</v>
-      </c>
-      <c r="Q7">
-        <v>336.806231</v>
-      </c>
-      <c r="R7">
-        <v>27720.709</v>
-      </c>
-      <c r="S7">
-        <v>5960.80438</v>
       </c>
       <c r="T7">
         <v>0.03251</v>
@@ -850,58 +850,58 @@
         </is>
       </c>
       <c r="B8">
+        <v>4291.948448250749</v>
+      </c>
+      <c r="C8">
+        <v>0.442450538</v>
+      </c>
+      <c r="D8">
+        <v>2180.613139351</v>
+      </c>
+      <c r="E8">
         <v>31164.440287639</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>16389.704008925</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>65684.685132003</v>
       </c>
-      <c r="E8">
-        <v>2256.725918607</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>2063.820457646</v>
+      </c>
+      <c r="I8">
         <v>25474.14803128</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>562452.536574936</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>82969.67099277499</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
+        <v>80268.52564233901</v>
+      </c>
+      <c r="M8">
         <v>13988.107652641</v>
       </c>
-      <c r="K8">
-        <v>10203.055895372</v>
-      </c>
-      <c r="L8">
+      <c r="N8">
+        <v>10199.748163072</v>
+      </c>
+      <c r="O8">
         <v>2355.955933091</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>12849.479619657</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>752.909483581</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>88468.53352356599</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>771.9798356849999</v>
-      </c>
-      <c r="Q8">
-        <v>442.676581</v>
-      </c>
-      <c r="R8">
-        <v>4295.435366769268</v>
-      </c>
-      <c r="S8">
-        <v>2181.238880356</v>
       </c>
       <c r="T8">
         <v>0.02032</v>
@@ -914,58 +914,58 @@
         </is>
       </c>
       <c r="B9">
-        <v>18566.901492832</v>
+        <v>11651.37876801335</v>
       </c>
       <c r="C9">
-        <v>127677.045875</v>
+        <v>1.015151656</v>
       </c>
       <c r="D9">
-        <v>866683.442411574</v>
+        <v>4331.634986504</v>
       </c>
       <c r="E9">
-        <v>35727.045574008</v>
+        <v>16910.806305351</v>
       </c>
       <c r="F9">
-        <v>31009.906628537</v>
+        <v>116892.052991325</v>
       </c>
       <c r="G9">
-        <v>414115.89479824</v>
+        <v>831715.16391617</v>
       </c>
       <c r="H9">
-        <v>55166.566261239</v>
+        <v>33330.147251874</v>
       </c>
       <c r="I9">
+        <v>29277.673997182</v>
+      </c>
+      <c r="J9">
+        <v>379170.901197282</v>
+      </c>
+      <c r="K9">
+        <v>47350.106388771</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>309004.968135524</v>
-      </c>
-      <c r="K9">
-        <v>153059.749841402</v>
-      </c>
-      <c r="L9">
-        <v>26524.579554455</v>
-      </c>
       <c r="M9">
-        <v>97349.11873694</v>
+        <v>263054.188376652</v>
       </c>
       <c r="N9">
-        <v>7268.814333621001</v>
+        <v>132433.627019568</v>
       </c>
       <c r="O9">
-        <v>774343.5668346019</v>
+        <v>23875.320583931</v>
       </c>
       <c r="P9">
-        <v>33775.900367995</v>
+        <v>75654.17712205501</v>
       </c>
       <c r="Q9">
-        <v>80050.616547</v>
+        <v>6710.675961258001</v>
       </c>
       <c r="R9">
-        <v>789251.9214860348</v>
+        <v>444349.783451846</v>
       </c>
       <c r="S9">
-        <v>62308.11772988</v>
+        <v>31665.806164818</v>
       </c>
       <c r="T9">
         <v>0.01252</v>
@@ -978,58 +978,58 @@
         </is>
       </c>
       <c r="B10">
+        <v>3805.244968862076</v>
+      </c>
+      <c r="C10">
+        <v>0.690245745</v>
+      </c>
+      <c r="D10">
+        <v>3041.03282374</v>
+      </c>
+      <c r="E10">
         <v>8980.790014186001</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>121298.937267611</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>157201.554432031</v>
       </c>
-      <c r="E10">
-        <v>19996.199398203</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>19845.813492777</v>
+      </c>
+      <c r="I10">
         <v>12366.81219853</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>270423.004192375</v>
       </c>
-      <c r="H10">
-        <v>38547.42067903</v>
-      </c>
-      <c r="I10">
-        <v>375385.456333149</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>38511.562056777</v>
+      </c>
+      <c r="L10">
+        <v>265924.557303991</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>40785.039606458</v>
-      </c>
-      <c r="L10">
+      <c r="N10">
+        <v>40776.952957428</v>
+      </c>
+      <c r="O10">
         <v>4327.532036823</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>65816.276451415</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>6910.398788076001</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>287265.902175377</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>1798.42996468</v>
-      </c>
-      <c r="Q10">
-        <v>690.2457450000001</v>
-      </c>
-      <c r="R10">
-        <v>3805.244968862076</v>
-      </c>
-      <c r="S10">
-        <v>3041.03282374</v>
       </c>
       <c r="T10">
         <v>0.01989</v>
@@ -1042,58 +1042,58 @@
         </is>
       </c>
       <c r="B11">
-        <v>3271.562476812</v>
+        <v>3540.042034303383</v>
       </c>
       <c r="C11">
-        <v>11776.633663758</v>
+        <v>0.284052146</v>
       </c>
       <c r="D11">
-        <v>54390.577292472</v>
+        <v>3157.10665781</v>
       </c>
       <c r="E11">
-        <v>24106.0678137</v>
+        <v>3271.177476812</v>
       </c>
       <c r="F11">
-        <v>1962.584239494</v>
+        <v>11776.501249758</v>
       </c>
       <c r="G11">
-        <v>40686.247362205</v>
+        <v>54372.275256405</v>
       </c>
       <c r="H11">
-        <v>3580.616874126</v>
+        <v>23885.859570588</v>
       </c>
       <c r="I11">
-        <v>775998.972129799</v>
+        <v>1960.321768694</v>
       </c>
       <c r="J11">
-        <v>30895.880785776</v>
+        <v>40665.402487074</v>
       </c>
       <c r="K11">
+        <v>3578.084787537</v>
+      </c>
+      <c r="L11">
+        <v>758942.1122575899</v>
+      </c>
+      <c r="M11">
+        <v>30890.314065245</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>5144.992901449999</v>
-      </c>
-      <c r="M11">
-        <v>50668.235199508</v>
-      </c>
-      <c r="N11">
-        <v>4973.156190468</v>
-      </c>
       <c r="O11">
-        <v>41188.39247153</v>
+        <v>5144.85190145</v>
       </c>
       <c r="P11">
-        <v>12800.733978494</v>
+        <v>50666.864975508</v>
       </c>
       <c r="Q11">
-        <v>289.217921</v>
+        <v>4973.085589468001</v>
       </c>
       <c r="R11">
-        <v>3557.889934303383</v>
+        <v>41188.34770223001</v>
       </c>
       <c r="S11">
-        <v>3157.10665781</v>
+        <v>12800.196238494</v>
       </c>
       <c r="T11">
         <v>0.05073</v>
@@ -1106,58 +1106,58 @@
         </is>
       </c>
       <c r="B12">
+        <v>2071.505725030579</v>
+      </c>
+      <c r="C12">
+        <v>0.14382613</v>
+      </c>
+      <c r="D12">
+        <v>2672.039437</v>
+      </c>
+      <c r="E12">
         <v>11134.261884</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>7378.690981588</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>53020.28799984</v>
       </c>
-      <c r="E12">
-        <v>6450.156184583</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>6417.12379433</v>
+      </c>
+      <c r="I12">
         <v>52.499007919</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>4902.440527</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>4048.532044594</v>
       </c>
-      <c r="I12">
-        <v>83294.896394407</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
+        <v>75028.220969464</v>
+      </c>
+      <c r="M12">
         <v>11543.464737657</v>
       </c>
-      <c r="K12">
-        <v>13912.429782668</v>
-      </c>
-      <c r="L12">
+      <c r="N12">
+        <v>13851.887601979</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>67070.988508482</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>522.809944307</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>129205.577995</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>35516.297900161</v>
-      </c>
-      <c r="Q12">
-        <v>143.82613</v>
-      </c>
-      <c r="R12">
-        <v>2071.505725030579</v>
-      </c>
-      <c r="S12">
-        <v>2672.039437</v>
       </c>
       <c r="T12">
         <v>0.05691</v>
@@ -1170,58 +1170,58 @@
         </is>
       </c>
       <c r="B13">
+        <v>3638.489096033859</v>
+      </c>
+      <c r="C13">
+        <v>1.438069596</v>
+      </c>
+      <c r="D13">
+        <v>4133.554356</v>
+      </c>
+      <c r="E13">
         <v>6664.514172116999</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>5084.239599746999</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>75244.553103193</v>
       </c>
-      <c r="E13">
-        <v>31670.697480185</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>31211.671745297</v>
+      </c>
+      <c r="I13">
         <v>3758.769290309</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>75805.28541611599</v>
       </c>
-      <c r="H13">
-        <v>13365.047051152</v>
-      </c>
-      <c r="I13">
-        <v>84129.222673304</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
+        <v>13354.250353582</v>
+      </c>
+      <c r="L13">
+        <v>74399.394302388</v>
+      </c>
+      <c r="M13">
         <v>39834.436250372</v>
       </c>
-      <c r="K13">
-        <v>66189.988049982</v>
-      </c>
-      <c r="L13">
+      <c r="N13">
+        <v>66189.28482972599</v>
+      </c>
+      <c r="O13">
         <v>4057.640414723</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>8019.745301948</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>16245.421866688</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>1342.416541464</v>
-      </c>
-      <c r="Q13">
-        <v>1438.069596</v>
-      </c>
-      <c r="R13">
-        <v>3638.489096033859</v>
-      </c>
-      <c r="S13">
-        <v>4133.554356</v>
       </c>
       <c r="T13">
         <v>0.03597</v>
@@ -1234,58 +1234,58 @@
         </is>
       </c>
       <c r="B14">
+        <v>380.6992718163949</v>
+      </c>
+      <c r="C14">
+        <v>0.063212384</v>
+      </c>
+      <c r="D14">
+        <v>522.1154911</v>
+      </c>
+      <c r="E14">
         <v>487.132977123</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>5748.079125054</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>20728.746276967</v>
       </c>
-      <c r="E14">
-        <v>29458.338172741</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>26093.252659538</v>
+      </c>
+      <c r="I14">
         <v>438.830408143</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>8319.539966328</v>
       </c>
-      <c r="H14">
-        <v>887.0966975320001</v>
-      </c>
-      <c r="I14">
-        <v>20301.192522946</v>
-      </c>
-      <c r="J14">
+      <c r="K14">
+        <v>886.8827659459999</v>
+      </c>
+      <c r="L14">
+        <v>18725.518489259</v>
+      </c>
+      <c r="M14">
         <v>2806.767791017</v>
       </c>
-      <c r="K14">
-        <v>3553.799569331</v>
-      </c>
-      <c r="L14">
+      <c r="N14">
+        <v>3553.617229143</v>
+      </c>
+      <c r="O14">
         <v>282.766918545</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>5044.33897732</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>12482.432179635</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>68.462301852</v>
-      </c>
-      <c r="Q14">
-        <v>63.212384</v>
-      </c>
-      <c r="R14">
-        <v>380.6992718163949</v>
-      </c>
-      <c r="S14">
-        <v>522.1154911</v>
       </c>
       <c r="T14">
         <v>0.04949</v>
@@ -1298,58 +1298,58 @@
         </is>
       </c>
       <c r="B15">
+        <v>18270.35665453321</v>
+      </c>
+      <c r="C15">
+        <v>1.41071</v>
+      </c>
+      <c r="D15">
+        <v>15943.98655</v>
+      </c>
+      <c r="E15">
         <v>59105.409511</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>157499.979155</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>501718.001968</v>
       </c>
-      <c r="E15">
-        <v>112042.636572</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>111485.340768</v>
+      </c>
+      <c r="I15">
         <v>45074.269772</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>501220.72266</v>
       </c>
-      <c r="H15">
-        <v>184359.954956</v>
-      </c>
-      <c r="I15">
-        <v>809562.574597</v>
-      </c>
-      <c r="J15">
+      <c r="K15">
+        <v>184289.844193</v>
+      </c>
+      <c r="L15">
+        <v>524950.656913</v>
+      </c>
+      <c r="M15">
         <v>523875.380464</v>
       </c>
-      <c r="K15">
-        <v>162699.965061</v>
-      </c>
-      <c r="L15">
+      <c r="N15">
+        <v>162535.043301</v>
+      </c>
+      <c r="O15">
         <v>110935.409106</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>117678.762947</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>23650.491937</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>70324.276178</v>
-      </c>
-      <c r="Q15">
-        <v>1410.71</v>
-      </c>
-      <c r="R15">
-        <v>18270.35665453321</v>
-      </c>
-      <c r="S15">
-        <v>15943.98655</v>
       </c>
       <c r="T15">
         <v>0.05977</v>
@@ -1362,58 +1362,58 @@
         </is>
       </c>
       <c r="B16">
+        <v>850.2400878804392</v>
+      </c>
+      <c r="C16">
+        <v>0.147039056</v>
+      </c>
+      <c r="D16">
+        <v>1083.16044196</v>
+      </c>
+      <c r="E16">
         <v>36.868373912</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>663.196867927</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>81119.627777527</v>
       </c>
-      <c r="E16">
-        <v>332.5514975580001</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>323.879899438</v>
+      </c>
+      <c r="I16">
         <v>370.041757952</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>2319.912163886</v>
       </c>
-      <c r="H16">
-        <v>341.549015935</v>
-      </c>
-      <c r="I16">
-        <v>36670.58124455999</v>
-      </c>
-      <c r="J16">
+      <c r="K16">
+        <v>341.511445785</v>
+      </c>
+      <c r="L16">
+        <v>35751.88132066101</v>
+      </c>
+      <c r="M16">
         <v>3878.547058192</v>
       </c>
-      <c r="K16">
-        <v>7169.216791866</v>
-      </c>
-      <c r="L16">
+      <c r="N16">
+        <v>7156.619753702</v>
+      </c>
+      <c r="O16">
         <v>19270.52058478</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>2330.86757286</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>20.072495847</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>20142.992671669</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>147.039056</v>
-      </c>
-      <c r="R16">
-        <v>850.2400878804392</v>
-      </c>
-      <c r="S16">
-        <v>1083.16044196</v>
       </c>
       <c r="T16">
         <v>0.05882</v>
